--- a/sputnik/personal/uch/uch297.xlsx
+++ b/sputnik/personal/uch/uch297.xlsx
@@ -63,7 +63,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="#,##0.00\ _₽"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -189,7 +189,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -198,10 +198,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,7 +541,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>43221</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -553,7 +553,7 @@
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>43221</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -565,7 +565,7 @@
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>43354</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -577,7 +577,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="13">
         <v>43586</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -589,7 +589,7 @@
       <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="13">
         <v>43738</v>
       </c>
       <c r="B7" s="10" t="s">

--- a/sputnik/personal/uch/uch297.xlsx
+++ b/sputnik/personal/uch/uch297.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -168,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -203,6 +203,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -510,10 +511,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A7"/>
+      <selection activeCell="A8" sqref="A8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -601,7 +602,28 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>43952</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="10">
+        <v>11800</v>
+      </c>
       <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>44011</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10">
+        <v>11800</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch297.xlsx
+++ b/sputnik/personal/uch/uch297.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>Оплачен взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Начислен взнос 2020/2021</t>
+  </si>
+  <si>
+    <t>Оплачен взнос 2020/2021</t>
   </si>
 </sst>
 </file>
@@ -168,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -204,6 +210,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -511,10 +518,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D9"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -606,7 +613,7 @@
         <v>43952</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" s="10">
         <v>11800</v>
@@ -618,12 +625,15 @@
         <v>44011</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10">
         <v>11800</v>
       </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch297.xlsx
+++ b/sputnik/personal/uch/uch297.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Оплачен взнос 2020/2021</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -174,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -210,7 +213,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -518,10 +520,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+      <selection activeCell="A10" sqref="A10:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -633,7 +635,64 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="14">
+        <v>44317</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="10">
+        <v>12583.52</v>
+      </c>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch297.xlsx
+++ b/sputnik/personal/uch/uch297.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -523,7 +523,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D18"/>
+      <selection activeCell="C6" sqref="C6:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -593,10 +593,10 @@
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="11">
         <v>10487.84</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
@@ -605,7 +605,7 @@
       <c r="B7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="11">
         <v>9840</v>
       </c>
@@ -617,7 +617,7 @@
       <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="11">
         <v>11800</v>
       </c>
       <c r="D8" s="11"/>
@@ -629,8 +629,8 @@
       <c r="B9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11">
         <v>11800</v>
       </c>
     </row>
@@ -641,58 +641,64 @@
       <c r="B10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="11">
         <v>12583.52</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="A11" s="14">
+        <v>44441</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11">
+        <v>12580</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
